--- a/2007-xlsx/25-KW47 Time-Sheet.xlsx
+++ b/2007-xlsx/25-KW47 Time-Sheet.xlsx
@@ -984,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="128" zoomScaleNormal="100" zoomScalePageLayoutView="128" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="128" zoomScaleNormal="100" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1034,7 +1034,7 @@
         <v>47</v>
       </c>
       <c r="L2" s="14" t="n">
-        <v>45979</v>
+        <v>45978</v>
       </c>
       <c r="M2" s="10" t="n">
         <f aca="false">M8</f>
@@ -1295,7 +1295,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38" t="str">
         <f aca="false">TEXT(L2,"TTT TT.MM.JJJJ")</f>
-        <v>Di 18.11.2025</v>
+        <v>Mo 17.11.2025</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>15</v>
@@ -1490,7 +1490,7 @@
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="str">
         <f aca="false">TEXT(L2+1,"TTT TT.MM.JJJJ")</f>
-        <v>Mi 19.11.2025</v>
+        <v>Di 18.11.2025</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>15</v>
@@ -1702,7 +1702,7 @@
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="str">
         <f aca="false">TEXT(L2+2,"TTT TT.MM.JJJJ")</f>
-        <v>Do 20.11.2025</v>
+        <v>Mi 19.11.2025</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>15</v>
@@ -1908,7 +1908,7 @@
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="38" t="str">
         <f aca="false">TEXT(L2+3,"TTT TT.MM.JJJJ")</f>
-        <v>Fr 21.11.2025</v>
+        <v>Do 20.11.2025</v>
       </c>
       <c r="B50" s="39" t="s">
         <v>15</v>
@@ -2067,7 +2067,7 @@
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="38" t="str">
         <f aca="false">TEXT(L2+4,"TTT TT.MM.JJJJ")</f>
-        <v>Sa 22.11.2025</v>
+        <v>Fr 21.11.2025</v>
       </c>
       <c r="B59" s="39" t="s">
         <v>15</v>
@@ -2200,7 +2200,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="str">
         <f aca="false">TEXT(L2+5,"  TTT TT.MM.JJJJ /")</f>
-        <v>So 23.11.2025 /</v>
+        <v>Sa 22.11.2025 /</v>
       </c>
       <c r="B66" s="39" t="s">
         <v>15</v>
@@ -2231,7 +2231,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="64" t="str">
         <f aca="false">TEXT(L2+6,"TTT TT.MM.JJJJ")</f>
-        <v>Mo 24.11.2025</v>
+        <v>So 23.11.2025</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="40"/>
